--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tshb-Tshr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tshb-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Tshr</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.94949282554867</v>
+        <v>4.383692666666667</v>
       </c>
       <c r="H2">
-        <v>3.94949282554867</v>
+        <v>13.151078</v>
       </c>
       <c r="I2">
-        <v>0.8247993538985455</v>
+        <v>0.8262491989495244</v>
       </c>
       <c r="J2">
-        <v>0.8247993538985455</v>
+        <v>0.8705526185731177</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0694673901208549</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N2">
-        <v>0.0694673901208549</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O2">
-        <v>0.02497769656176403</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P2">
-        <v>0.02497769656176403</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q2">
-        <v>0.274360958891907</v>
+        <v>0.8126416403922221</v>
       </c>
       <c r="R2">
-        <v>0.274360958891907</v>
+        <v>7.313774763529999</v>
       </c>
       <c r="S2">
-        <v>0.02060158798601689</v>
+        <v>0.04255216618051443</v>
       </c>
       <c r="T2">
-        <v>0.02060158798601689</v>
+        <v>0.0537558471736556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.94949282554867</v>
+        <v>4.383692666666667</v>
       </c>
       <c r="H3">
-        <v>3.94949282554867</v>
+        <v>13.151078</v>
       </c>
       <c r="I3">
-        <v>0.8247993538985455</v>
+        <v>0.8262491989495244</v>
       </c>
       <c r="J3">
-        <v>0.8247993538985455</v>
+        <v>0.8705526185731177</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.1495698006026</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N3">
-        <v>1.1495698006026</v>
+        <v>3.630605</v>
       </c>
       <c r="O3">
-        <v>0.4133393467937292</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P3">
-        <v>0.4133393467937292</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q3">
-        <v>4.540217679947384</v>
+        <v>5.305152171354444</v>
       </c>
       <c r="R3">
-        <v>4.540217679947384</v>
+        <v>47.74636954219</v>
       </c>
       <c r="S3">
-        <v>0.3409220261763147</v>
+        <v>0.2777924556012598</v>
       </c>
       <c r="T3">
-        <v>0.3409220261763147</v>
+        <v>0.3509332221994838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.94949282554867</v>
+        <v>4.383692666666667</v>
       </c>
       <c r="H4">
-        <v>3.94949282554867</v>
+        <v>13.151078</v>
       </c>
       <c r="I4">
-        <v>0.8247993538985455</v>
+        <v>0.8262491989495244</v>
       </c>
       <c r="J4">
-        <v>0.8247993538985455</v>
+        <v>0.8705526185731177</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.226787560066387</v>
+        <v>0.167083</v>
       </c>
       <c r="N4">
-        <v>0.226787560066387</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O4">
-        <v>0.08154374087562649</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P4">
-        <v>0.08154374087562649</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q4">
-        <v>0.8956958414058835</v>
+        <v>0.7324405218246666</v>
       </c>
       <c r="R4">
-        <v>0.8956958414058835</v>
+        <v>6.591964696421999</v>
       </c>
       <c r="S4">
-        <v>0.06725722478868715</v>
+        <v>0.03835261356652014</v>
       </c>
       <c r="T4">
-        <v>0.06725722478868715</v>
+        <v>0.04845058239446843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.94949282554867</v>
+        <v>4.383692666666667</v>
       </c>
       <c r="H5">
-        <v>3.94949282554867</v>
+        <v>13.151078</v>
       </c>
       <c r="I5">
-        <v>0.8247993538985455</v>
+        <v>0.8262491989495244</v>
       </c>
       <c r="J5">
-        <v>0.8247993538985455</v>
+        <v>0.8705526185731177</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.33535204624099</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N5">
-        <v>1.33535204624099</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O5">
-        <v>0.4801392157688803</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P5">
-        <v>0.4801392157688803</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q5">
-        <v>5.273963326210526</v>
+        <v>1.072249765035778</v>
       </c>
       <c r="R5">
-        <v>5.273963326210526</v>
+        <v>9.650247885322001</v>
       </c>
       <c r="S5">
-        <v>0.3960185149475268</v>
+        <v>0.05614596634107782</v>
       </c>
       <c r="T5">
-        <v>0.3960185149475268</v>
+        <v>0.0709287976843416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0543808332293038</v>
+        <v>4.383692666666667</v>
       </c>
       <c r="H6">
-        <v>0.0543808332293038</v>
+        <v>13.151078</v>
       </c>
       <c r="I6">
-        <v>0.01135671796182165</v>
+        <v>0.8262491989495244</v>
       </c>
       <c r="J6">
-        <v>0.01135671796182165</v>
+        <v>0.8705526185731177</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0694673901208549</v>
+        <v>1.7922885</v>
       </c>
       <c r="N6">
-        <v>0.0694673901208549</v>
+        <v>3.584577</v>
       </c>
       <c r="O6">
-        <v>0.02497769656176403</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P6">
-        <v>0.02497769656176403</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q6">
-        <v>0.003777694557037197</v>
+        <v>7.856841954001</v>
       </c>
       <c r="R6">
-        <v>0.003777694557037197</v>
+        <v>47.141051724006</v>
       </c>
       <c r="S6">
-        <v>0.0002836646551879165</v>
+        <v>0.4114059972601523</v>
       </c>
       <c r="T6">
-        <v>0.0002836646551879165</v>
+        <v>0.3464841691211683</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0543808332293038</v>
+        <v>0.07341733333333333</v>
       </c>
       <c r="H7">
-        <v>0.0543808332293038</v>
+        <v>0.220252</v>
       </c>
       <c r="I7">
-        <v>0.01135671796182165</v>
+        <v>0.01383787994923539</v>
       </c>
       <c r="J7">
-        <v>0.01135671796182165</v>
+        <v>0.0145798660266456</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.1495698006026</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N7">
-        <v>1.1495698006026</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O7">
-        <v>0.4133393467937292</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P7">
-        <v>0.4133393467937292</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q7">
-        <v>0.06251456361201402</v>
+        <v>0.01360998289111111</v>
       </c>
       <c r="R7">
-        <v>0.06251456361201402</v>
+        <v>0.12248984602</v>
       </c>
       <c r="S7">
-        <v>0.004694178384059973</v>
+        <v>0.000712656384943551</v>
       </c>
       <c r="T7">
-        <v>0.004694178384059973</v>
+        <v>0.0009002937136934321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0543808332293038</v>
+        <v>0.07341733333333333</v>
       </c>
       <c r="H8">
-        <v>0.0543808332293038</v>
+        <v>0.220252</v>
       </c>
       <c r="I8">
-        <v>0.01135671796182165</v>
+        <v>0.01383787994923539</v>
       </c>
       <c r="J8">
-        <v>0.01135671796182165</v>
+        <v>0.0145798660266456</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.226787560066387</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N8">
-        <v>0.226787560066387</v>
+        <v>3.630605</v>
       </c>
       <c r="O8">
-        <v>0.08154374087562649</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P8">
-        <v>0.08154374087562649</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q8">
-        <v>0.01233289648245091</v>
+        <v>0.08884977916222223</v>
       </c>
       <c r="R8">
-        <v>0.01233289648245091</v>
+        <v>0.7996480124600001</v>
       </c>
       <c r="S8">
-        <v>0.0009260692666763578</v>
+        <v>0.004652420427518464</v>
       </c>
       <c r="T8">
-        <v>0.0009260692666763578</v>
+        <v>0.005877369448792008</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0543808332293038</v>
+        <v>0.07341733333333333</v>
       </c>
       <c r="H9">
-        <v>0.0543808332293038</v>
+        <v>0.220252</v>
       </c>
       <c r="I9">
-        <v>0.01135671796182165</v>
+        <v>0.01383787994923539</v>
       </c>
       <c r="J9">
-        <v>0.01135671796182165</v>
+        <v>0.0145798660266456</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.33535204624099</v>
+        <v>0.167083</v>
       </c>
       <c r="N9">
-        <v>1.33535204624099</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O9">
-        <v>0.4801392157688803</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P9">
-        <v>0.4801392157688803</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q9">
-        <v>0.07261755692904086</v>
+        <v>0.01226678830533333</v>
       </c>
       <c r="R9">
-        <v>0.07261755692904086</v>
+        <v>0.110401094748</v>
       </c>
       <c r="S9">
-        <v>0.005452805655897405</v>
+        <v>0.0006423229976472799</v>
       </c>
       <c r="T9">
-        <v>0.005452805655897405</v>
+        <v>0.0008114420485945304</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.784554953442396</v>
+        <v>0.07341733333333333</v>
       </c>
       <c r="H10">
-        <v>0.784554953442396</v>
+        <v>0.220252</v>
       </c>
       <c r="I10">
-        <v>0.1638439281396328</v>
+        <v>0.01383787994923539</v>
       </c>
       <c r="J10">
-        <v>0.1638439281396328</v>
+        <v>0.0145798660266456</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0694673901208549</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N10">
-        <v>0.0694673901208549</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O10">
-        <v>0.02497769656176403</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P10">
-        <v>0.02497769656176403</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q10">
-        <v>0.05450098502203208</v>
+        <v>0.01795785526088889</v>
       </c>
       <c r="R10">
-        <v>0.05450098502203208</v>
+        <v>0.161620697348</v>
       </c>
       <c r="S10">
-        <v>0.004092443920559219</v>
+        <v>0.0009403230197976983</v>
       </c>
       <c r="T10">
-        <v>0.004092443920559219</v>
+        <v>0.001187903345077233</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.784554953442396</v>
+        <v>0.07341733333333333</v>
       </c>
       <c r="H11">
-        <v>0.784554953442396</v>
+        <v>0.220252</v>
       </c>
       <c r="I11">
-        <v>0.1638439281396328</v>
+        <v>0.01383787994923539</v>
       </c>
       <c r="J11">
-        <v>0.1638439281396328</v>
+        <v>0.0145798660266456</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.1495698006026</v>
+        <v>1.7922885</v>
       </c>
       <c r="N11">
-        <v>1.1495698006026</v>
+        <v>3.584577</v>
       </c>
       <c r="O11">
-        <v>0.4133393467937292</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P11">
-        <v>0.4133393467937292</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q11">
-        <v>0.9019006813905573</v>
+        <v>0.131585042234</v>
       </c>
       <c r="R11">
-        <v>0.9019006813905573</v>
+        <v>0.7895102534039999</v>
       </c>
       <c r="S11">
-        <v>0.06772314223335453</v>
+        <v>0.006890157119328399</v>
       </c>
       <c r="T11">
-        <v>0.06772314223335453</v>
+        <v>0.005802857470488393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.784554953442396</v>
+        <v>0.02068766666666667</v>
       </c>
       <c r="H12">
-        <v>0.784554953442396</v>
+        <v>0.062063</v>
       </c>
       <c r="I12">
-        <v>0.1638439281396328</v>
+        <v>0.003899262405287562</v>
       </c>
       <c r="J12">
-        <v>0.1638439281396328</v>
+        <v>0.004108340560865308</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.226787560066387</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N12">
-        <v>0.226787560066387</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O12">
-        <v>0.08154374087562649</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P12">
-        <v>0.08154374087562649</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q12">
-        <v>0.1779273036291988</v>
+        <v>0.003835045167222222</v>
       </c>
       <c r="R12">
-        <v>0.1779273036291988</v>
+        <v>0.034515406505</v>
       </c>
       <c r="S12">
-        <v>0.01336044682026299</v>
+        <v>0.0002008135827086774</v>
       </c>
       <c r="T12">
-        <v>0.01336044682026299</v>
+        <v>0.0002536863626798189</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.02068766666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.062063</v>
+      </c>
+      <c r="I13">
+        <v>0.003899262405287562</v>
+      </c>
+      <c r="J13">
+        <v>0.004108340560865308</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.210201666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.630605</v>
+      </c>
+      <c r="O13">
+        <v>0.3362090468038446</v>
+      </c>
+      <c r="P13">
+        <v>0.4031154633417589</v>
+      </c>
+      <c r="Q13">
+        <v>0.02503624867944444</v>
+      </c>
+      <c r="R13">
+        <v>0.225326238115</v>
+      </c>
+      <c r="S13">
+        <v>0.001310967296519798</v>
+      </c>
+      <c r="T13">
+        <v>0.00165613560875896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.02068766666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.062063</v>
+      </c>
+      <c r="I14">
+        <v>0.003899262405287562</v>
+      </c>
+      <c r="J14">
+        <v>0.004108340560865308</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.167083</v>
+      </c>
+      <c r="N14">
+        <v>0.5012489999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.04641773161811331</v>
+      </c>
+      <c r="P14">
+        <v>0.05565497289972147</v>
+      </c>
+      <c r="Q14">
+        <v>0.003456557409666666</v>
+      </c>
+      <c r="R14">
+        <v>0.031109016687</v>
+      </c>
+      <c r="S14">
+        <v>0.000180994915837237</v>
+      </c>
+      <c r="T14">
+        <v>0.0002286495825777852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.02068766666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.062063</v>
+      </c>
+      <c r="I15">
+        <v>0.003899262405287562</v>
+      </c>
+      <c r="J15">
+        <v>0.004108340560865308</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2445996666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.7337990000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.06795282393309501</v>
+      </c>
+      <c r="P15">
+        <v>0.08147560086672037</v>
+      </c>
+      <c r="Q15">
+        <v>0.005060196370777779</v>
+      </c>
+      <c r="R15">
+        <v>0.04554176733700001</v>
+      </c>
+      <c r="S15">
+        <v>0.0002649658916954422</v>
+      </c>
+      <c r="T15">
+        <v>0.0003347295157616199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.02068766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.062063</v>
+      </c>
+      <c r="I16">
+        <v>0.003899262405287562</v>
+      </c>
+      <c r="J16">
+        <v>0.004108340560865308</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.7922885</v>
+      </c>
+      <c r="N16">
+        <v>3.584577</v>
+      </c>
+      <c r="O16">
+        <v>0.4979199953031181</v>
+      </c>
+      <c r="P16">
+        <v>0.3980048554550032</v>
+      </c>
+      <c r="Q16">
+        <v>0.0370782670585</v>
+      </c>
+      <c r="R16">
+        <v>0.222469602351</v>
+      </c>
+      <c r="S16">
+        <v>0.001941520718526408</v>
+      </c>
+      <c r="T16">
+        <v>0.001635139491087124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.01772166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.053165</v>
+      </c>
+      <c r="I17">
+        <v>0.003340223414548333</v>
+      </c>
+      <c r="J17">
+        <v>0.003519325941678683</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1853783333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.5561349999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.05150040234182901</v>
+      </c>
+      <c r="P17">
+        <v>0.06174910743679608</v>
+      </c>
+      <c r="Q17">
+        <v>0.003285213030555555</v>
+      </c>
+      <c r="R17">
+        <v>0.029566917275</v>
+      </c>
+      <c r="S17">
+        <v>0.0001720228497608371</v>
+      </c>
+      <c r="T17">
+        <v>0.0002173152356778205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.01772166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.053165</v>
+      </c>
+      <c r="I18">
+        <v>0.003340223414548333</v>
+      </c>
+      <c r="J18">
+        <v>0.003519325941678683</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.210201666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.630605</v>
+      </c>
+      <c r="O18">
+        <v>0.3362090468038446</v>
+      </c>
+      <c r="P18">
+        <v>0.4031154633417589</v>
+      </c>
+      <c r="Q18">
+        <v>0.02144679053611111</v>
+      </c>
+      <c r="R18">
+        <v>0.193021114825</v>
+      </c>
+      <c r="S18">
+        <v>0.001123013330317178</v>
+      </c>
+      <c r="T18">
+        <v>0.001418694707630474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.784554953442396</v>
-      </c>
-      <c r="H13">
-        <v>0.784554953442396</v>
-      </c>
-      <c r="I13">
-        <v>0.1638439281396328</v>
-      </c>
-      <c r="J13">
-        <v>0.1638439281396328</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.33535204624099</v>
-      </c>
-      <c r="N13">
-        <v>1.33535204624099</v>
-      </c>
-      <c r="O13">
-        <v>0.4801392157688803</v>
-      </c>
-      <c r="P13">
-        <v>0.4801392157688803</v>
-      </c>
-      <c r="Q13">
-        <v>1.047657062467808</v>
-      </c>
-      <c r="R13">
-        <v>1.047657062467808</v>
-      </c>
-      <c r="S13">
-        <v>0.07866789516545608</v>
-      </c>
-      <c r="T13">
-        <v>0.07866789516545608</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.01772166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.053165</v>
+      </c>
+      <c r="I19">
+        <v>0.003340223414548333</v>
+      </c>
+      <c r="J19">
+        <v>0.003519325941678683</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.167083</v>
+      </c>
+      <c r="N19">
+        <v>0.5012489999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.04641773161811331</v>
+      </c>
+      <c r="P19">
+        <v>0.05565497289972147</v>
+      </c>
+      <c r="Q19">
+        <v>0.002960989231666667</v>
+      </c>
+      <c r="R19">
+        <v>0.026648903085</v>
+      </c>
+      <c r="S19">
+        <v>0.0001550455940010426</v>
+      </c>
+      <c r="T19">
+        <v>0.0001958679899094138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.01772166666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.053165</v>
+      </c>
+      <c r="I20">
+        <v>0.003340223414548333</v>
+      </c>
+      <c r="J20">
+        <v>0.003519325941678683</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.2445996666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.7337990000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.06795282393309501</v>
+      </c>
+      <c r="P20">
+        <v>0.08147560086672037</v>
+      </c>
+      <c r="Q20">
+        <v>0.004334713759444444</v>
+      </c>
+      <c r="R20">
+        <v>0.03901242383500001</v>
+      </c>
+      <c r="S20">
+        <v>0.0002269776135860043</v>
+      </c>
+      <c r="T20">
+        <v>0.0002867391957441072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.01772166666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.053165</v>
+      </c>
+      <c r="I21">
+        <v>0.003340223414548333</v>
+      </c>
+      <c r="J21">
+        <v>0.003519325941678683</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.7922885</v>
+      </c>
+      <c r="N21">
+        <v>3.584577</v>
+      </c>
+      <c r="O21">
+        <v>0.4979199953031181</v>
+      </c>
+      <c r="P21">
+        <v>0.3980048554550032</v>
+      </c>
+      <c r="Q21">
+        <v>0.0317623393675</v>
+      </c>
+      <c r="R21">
+        <v>0.190574036205</v>
+      </c>
+      <c r="S21">
+        <v>0.001663164026883271</v>
+      </c>
+      <c r="T21">
+        <v>0.001400708812716867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.810014</v>
+      </c>
+      <c r="H22">
+        <v>1.620028</v>
+      </c>
+      <c r="I22">
+        <v>0.1526734352814043</v>
+      </c>
+      <c r="J22">
+        <v>0.1072398488976927</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1853783333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.5561349999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.05150040234182901</v>
+      </c>
+      <c r="P22">
+        <v>0.06174910743679608</v>
+      </c>
+      <c r="Q22">
+        <v>0.1501590452966667</v>
+      </c>
+      <c r="R22">
+        <v>0.9009542717799999</v>
+      </c>
+      <c r="S22">
+        <v>0.007862743343901515</v>
+      </c>
+      <c r="T22">
+        <v>0.006621964951089404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.810014</v>
+      </c>
+      <c r="H23">
+        <v>1.620028</v>
+      </c>
+      <c r="I23">
+        <v>0.1526734352814043</v>
+      </c>
+      <c r="J23">
+        <v>0.1072398488976927</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.210201666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.630605</v>
+      </c>
+      <c r="O23">
+        <v>0.3362090468038446</v>
+      </c>
+      <c r="P23">
+        <v>0.4031154633417589</v>
+      </c>
+      <c r="Q23">
+        <v>0.9802802928233333</v>
+      </c>
+      <c r="R23">
+        <v>5.88168175694</v>
+      </c>
+      <c r="S23">
+        <v>0.05133019014822941</v>
+      </c>
+      <c r="T23">
+        <v>0.0432300413770936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.810014</v>
+      </c>
+      <c r="H24">
+        <v>1.620028</v>
+      </c>
+      <c r="I24">
+        <v>0.1526734352814043</v>
+      </c>
+      <c r="J24">
+        <v>0.1072398488976927</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.167083</v>
+      </c>
+      <c r="N24">
+        <v>0.5012489999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.04641773161811331</v>
+      </c>
+      <c r="P24">
+        <v>0.05565497289972147</v>
+      </c>
+      <c r="Q24">
+        <v>0.135339569162</v>
+      </c>
+      <c r="R24">
+        <v>0.8120374149719999</v>
+      </c>
+      <c r="S24">
+        <v>0.007086754544107619</v>
+      </c>
+      <c r="T24">
+        <v>0.005968430884171312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.810014</v>
+      </c>
+      <c r="H25">
+        <v>1.620028</v>
+      </c>
+      <c r="I25">
+        <v>0.1526734352814043</v>
+      </c>
+      <c r="J25">
+        <v>0.1072398488976927</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2445996666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.7337990000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.06795282393309501</v>
+      </c>
+      <c r="P25">
+        <v>0.08147560086672037</v>
+      </c>
+      <c r="Q25">
+        <v>0.1981291543953334</v>
+      </c>
+      <c r="R25">
+        <v>1.188774926372</v>
+      </c>
+      <c r="S25">
+        <v>0.01037459106693805</v>
+      </c>
+      <c r="T25">
+        <v>0.008737431125795813</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.810014</v>
+      </c>
+      <c r="H26">
+        <v>1.620028</v>
+      </c>
+      <c r="I26">
+        <v>0.1526734352814043</v>
+      </c>
+      <c r="J26">
+        <v>0.1072398488976927</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.7922885</v>
+      </c>
+      <c r="N26">
+        <v>3.584577</v>
+      </c>
+      <c r="O26">
+        <v>0.4979199953031181</v>
+      </c>
+      <c r="P26">
+        <v>0.3980048554550032</v>
+      </c>
+      <c r="Q26">
+        <v>1.451778777039</v>
+      </c>
+      <c r="R26">
+        <v>5.807115108156</v>
+      </c>
+      <c r="S26">
+        <v>0.07601915617822776</v>
+      </c>
+      <c r="T26">
+        <v>0.04268198055954257</v>
       </c>
     </row>
   </sheetData>
